--- a/pyData.xlsx
+++ b/pyData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Green</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>Ana</t>
   </si>
   <si>
@@ -60,6 +57,57 @@
   </si>
   <si>
     <t>blue</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Salome</t>
+  </si>
+  <si>
+    <t>sal@yahoo.com</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>Nino</t>
+  </si>
+  <si>
+    <t>Mari</t>
+  </si>
+  <si>
+    <t>Sopo</t>
+  </si>
+  <si>
+    <t>Elene</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>test1@gmail.com</t>
+  </si>
+  <si>
+    <t>test2@gmail.com</t>
+  </si>
+  <si>
+    <t>test3@gmail.com</t>
+  </si>
+  <si>
+    <t>test4@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -392,20 +440,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,9 +468,8 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -437,25 +483,110 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" s="3">
         <v>25</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="3">
+        <v>23</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3">
+        <v>24</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
